--- a/Data_science_lessons/beeline.xlsx
+++ b/Data_science_lessons/beeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="359">
   <si>
     <r>
       <rPr>
@@ -1701,15 +1701,6 @@
         <sz val="7"/>
         <rFont val="Sylfaen"/>
       </rPr>
-      <t>12 мая 2020 Вт, 15:48:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Sylfaen"/>
-      </rPr>
       <t>12 мая 2020 Вт, 14:49:10</t>
     </r>
   </si>
@@ -1825,15 +1816,6 @@
         <sz val="7"/>
         <rFont val="Sylfaen"/>
       </rPr>
-      <t>Пополнение баланса</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Sylfaen"/>
-      </rPr>
       <t>7377</t>
     </r>
   </si>
@@ -1975,16 +1957,6 @@
   <si>
     <r>
       <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="7"/>
-        <rFont val="Sylfaen"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="7"/>
         <rFont val="Sylfaen"/>
       </rPr>
@@ -2015,24 +1987,6 @@
         <sz val="7"/>
         <rFont val="Sylfaen"/>
       </rPr>
-      <t>Основной баланс</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Sylfaen"/>
-      </rPr>
-      <t>300,0000 руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Sylfaen"/>
-      </rPr>
       <t>руб.</t>
     </r>
   </si>
@@ -2079,15 +2033,6 @@
         <rFont val="Sylfaen"/>
       </rPr>
       <t>330,400</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Sylfaen"/>
-      </rPr>
-      <t>330,4000 руб.</t>
     </r>
   </si>
   <si>
@@ -3427,42 +3372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3621,7 +3531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3681,46 +3591,31 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4023,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4057,432 +3952,432 @@
       <c r="E1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>364</v>
+      <c r="E2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>364</v>
+      <c r="I3" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>364</v>
+      <c r="E4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="33" t="s">
+      <c r="E5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>364</v>
+      <c r="I5" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="33" t="s">
+      <c r="E6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>364</v>
+      <c r="I6" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="E7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>364</v>
+      <c r="I7" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="E8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>364</v>
+      <c r="I8" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="E9" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>364</v>
+      <c r="I9" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>364</v>
+      <c r="E10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="33" t="s">
+      <c r="G11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>364</v>
+      <c r="I11" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>364</v>
+      <c r="E12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>364</v>
+      <c r="E13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="G14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>364</v>
+      <c r="E15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>364</v>
+      <c r="I16" s="22" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5599,7 +5494,7 @@
         <v>148</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>30</v>
@@ -5631,7 +5526,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>37</v>
@@ -5657,10 +5552,10 @@
         <v>150</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>37</v>
@@ -5686,10 +5581,10 @@
         <v>151</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>37</v>
@@ -5719,7 +5614,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>0</v>
@@ -5773,7 +5668,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>0</v>
@@ -5799,7 +5694,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>37</v>
@@ -5825,10 +5720,10 @@
         <v>156</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>37</v>
@@ -5843,7 +5738,7 @@
         <v>50</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>50</v>
@@ -5854,10 +5749,10 @@
         <v>157</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>37</v>
@@ -5872,7 +5767,7 @@
         <v>50</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>50</v>
@@ -5916,7 +5811,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>0</v>
@@ -5955,7 +5850,7 @@
         <v>50</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>50</v>
@@ -5969,10 +5864,10 @@
         <v>98</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>0</v>
@@ -5984,7 +5879,7 @@
         <v>50</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>50</v>
@@ -5998,10 +5893,10 @@
         <v>23</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>0</v>
@@ -6013,7 +5908,7 @@
         <v>50</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>50</v>
@@ -6086,7 +5981,7 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>0</v>
@@ -6125,7 +6020,7 @@
         <v>50</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>50</v>
@@ -6140,7 +6035,7 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>0</v>
@@ -6254,7 +6149,7 @@
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>0</v>
@@ -6364,10 +6259,10 @@
         <v>175</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>37</v>
@@ -6382,7 +6277,7 @@
         <v>50</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>50</v>
@@ -6397,7 +6292,7 @@
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>0</v>
@@ -6436,7 +6331,7 @@
         <v>50</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>50</v>
@@ -6451,7 +6346,7 @@
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>0</v>
@@ -6490,7 +6385,7 @@
         <v>50</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>50</v>
@@ -6504,10 +6399,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E88" s="14" t="s">
         <v>0</v>
@@ -6519,115 +6414,121 @@
         <v>50</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="I89" s="27"/>
+      <c r="B89" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I90" s="4" t="s">
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>19</v>
+      <c r="B91" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91" s="1" t="s">
+      <c r="D91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6661,87 +6562,87 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I94" s="1" t="s">
+      <c r="B94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I96" s="1" t="s">
+      <c r="D96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6750,13 +6651,13 @@
         <v>189</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>0</v>
@@ -6768,50 +6669,50 @@
         <v>50</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>50</v>
+      <c r="B98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>37</v>
@@ -6823,201 +6724,201 @@
         <v>48</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B100" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="4" t="s">
+      <c r="C105" s="3"/>
+      <c r="D105" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E102" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5" t="s">
+      <c r="E105" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I105" s="1" t="s">
+      <c r="G105" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="D106" s="4" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>0</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>50</v>
@@ -7025,16 +6926,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>0</v>
@@ -7046,160 +6947,160 @@
         <v>50</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="I108" s="4" t="s">
+      <c r="A108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="A109" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="I110" s="4" t="s">
+      <c r="D110" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I111" s="1" t="s">
+      <c r="A111" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I112" s="4" t="s">
+      <c r="A112" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>21</v>
+        <v>234</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>37</v>
@@ -7214,53 +7115,53 @@
         <v>50</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="A114" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="D114" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>0</v>
@@ -7272,7 +7173,7 @@
         <v>50</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>50</v>
@@ -7280,16 +7181,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E116" s="14" t="s">
         <v>0</v>
@@ -7301,7 +7202,7 @@
         <v>50</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>50</v>
@@ -7309,157 +7210,157 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B117" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I121" s="1" t="s">
+      <c r="C121" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I121" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>0</v>
@@ -7471,7 +7372,7 @@
         <v>50</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>50</v>
@@ -7479,16 +7380,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>0</v>
@@ -7500,7 +7401,7 @@
         <v>50</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>50</v>
@@ -7508,16 +7409,16 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>0</v>
@@ -7529,7 +7430,7 @@
         <v>50</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>50</v>
@@ -7537,182 +7438,182 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C130" s="3"/>
-      <c r="D130" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="I130" s="4" t="s">
+      <c r="D130" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="1" t="s">
-        <v>291</v>
+        <v>21</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>0</v>
@@ -7732,13 +7633,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>21</v>
+        <v>253</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>37</v>
@@ -7753,7 +7654,7 @@
         <v>50</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>50</v>
@@ -7761,90 +7662,90 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D133" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E133" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I135" s="4" t="s">
+      <c r="E135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>21</v>
@@ -7873,7 +7774,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>21</v>
@@ -7902,16 +7803,14 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>0</v>
@@ -7920,162 +7819,164 @@
         <v>48</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="A139" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C140" s="3"/>
-      <c r="D140" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I140" s="4" t="s">
+      <c r="D140" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C143" s="3"/>
-      <c r="D143" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I143" s="4" t="s">
+      <c r="D143" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="1" t="s">
-        <v>342</v>
+        <v>21</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>0</v>
@@ -8095,13 +7996,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>21</v>
+        <v>301</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>37</v>
@@ -8116,7 +8017,7 @@
         <v>50</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>50</v>
@@ -8124,13 +8025,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>193</v>
+        <v>302</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>37</v>
@@ -8145,7 +8046,7 @@
         <v>50</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>50</v>
@@ -8153,13 +8054,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>21</v>
+        <v>303</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>37</v>
@@ -8174,301 +8075,301 @@
         <v>50</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I148" s="1" t="s">
+      <c r="A148" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I148" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="A149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="4" t="s">
+      <c r="C152" s="3"/>
+      <c r="D152" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I152" s="1" t="s">
+      <c r="E152" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I152" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C153" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="D153" s="4" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I154" s="4" t="s">
+      <c r="A154" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I154" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D157" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I157" s="4" t="s">
+      <c r="E157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I157" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>37</v>
@@ -8491,13 +8392,13 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>21</v>
+        <v>315</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>37</v>
@@ -8512,133 +8413,133 @@
         <v>50</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>48</v>
+        <v>354</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D160" s="9" t="s">
+      <c r="A160" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I163" s="4" t="s">
+      <c r="E163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>110</v>
+      <c r="C164" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>37</v>
@@ -8660,46 +8561,46 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I165" s="1" t="s">
+      <c r="A165" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I165" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>0</v>
@@ -8711,236 +8612,205 @@
         <v>50</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I166" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I167" s="4" t="s">
+      <c r="A167" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I167" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>19</v>
+      <c r="A168" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I168" s="1" t="s">
+      <c r="D168" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B169" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="4" t="s">
+      <c r="C171" s="3"/>
+      <c r="D171" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="E171" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I172" s="4" t="s">
+      <c r="D172" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C173" s="3"/>
-      <c r="D173" s="1" t="s">
-        <v>355</v>
+      <c r="D173" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>48</v>
+        <v>357</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
+  <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
